--- a/2021-07-28 HBE1 AMPKAR ERKTR Cytokine INS OLI 2DG/2021-07-28 HBE1 AMPKAR ERKTR Cytokine INS OLI 2DG_platemap.xlsx
+++ b/2021-07-28 HBE1 AMPKAR ERKTR Cytokine INS OLI 2DG/2021-07-28 HBE1 AMPKAR ERKTR Cytokine INS OLI 2DG_platemap.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\albecklab.mcb.ucdavis.edu\data\imageData\SPREADs\2021-07-28 HBE1 AMPKAR ERKTR Cytokine INS OLI 2DG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\imageData\SPREADs\2021-07-28 HBE1 AMPKAR ERKTR Cytokine INS OLI 2DG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD80050-C440-4DD8-B402-A7B0A49E35CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B64644C-6741-4602-BB42-EAE3CF85BE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1282,33 +1282,33 @@
   </sheetPr>
   <dimension ref="A1:AO154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="12" width="14.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="3" customWidth="1"/>
-    <col min="14" max="16" width="14.28515625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="14.140625" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="19.26953125" style="1" customWidth="1"/>
+    <col min="2" max="12" width="14.26953125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="3" customWidth="1"/>
+    <col min="14" max="16" width="14.26953125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="14.1796875" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>49</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
@@ -1419,12 +1419,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1432,12 +1432,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="47">
         <v>89</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="L24" s="25"/>
       <c r="M24" s="47"/>
     </row>
-    <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="46">
         <v>1</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="46">
         <v>2</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="46">
         <v>3</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="46">
         <v>4</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="46">
         <v>5</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="46">
         <v>6</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="46">
         <v>7</v>
       </c>
@@ -1763,8 +1763,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>1</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="26" t="s">
         <v>112</v>
@@ -1800,7 +1800,7 @@
       <c r="L35" s="26"/>
       <c r="M35" s="26"/>
     </row>
-    <row r="36" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="26" t="s">
         <v>112</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="26" t="s">
         <v>112</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="26" t="s">
         <v>112</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="26" t="s">
         <v>112</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="26" t="s">
         <v>112</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="26" t="s">
         <v>112</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="26" t="s">
         <v>112</v>
       </c>
@@ -2066,8 +2066,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
         <v>2</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="26"/>
       <c r="C46" s="26" t="s">
         <v>95</v>
@@ -2103,7 +2103,7 @@
       <c r="L46" s="26"/>
       <c r="M46" s="26"/>
     </row>
-    <row r="47" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="26" t="s">
         <v>95</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="26" t="s">
         <v>95</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="26" t="s">
         <v>95</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="26" t="s">
         <v>95</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="26" t="s">
         <v>95</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="26" t="s">
         <v>95</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="26" t="s">
         <v>95</v>
       </c>
@@ -2369,8 +2369,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="6" t="s">
         <v>12</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="42"/>
       <c r="C57" s="42" t="s">
         <v>133</v>
@@ -2406,7 +2406,7 @@
       <c r="L57" s="28"/>
       <c r="M57" s="28"/>
     </row>
-    <row r="58" spans="2:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="42" t="s">
         <v>133</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="42" t="s">
         <v>133</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="42" t="s">
         <v>133</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="42" t="s">
         <v>133</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="42" t="s">
         <v>133</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="42" t="s">
         <v>133</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="42" t="s">
         <v>133</v>
       </c>
@@ -2672,8 +2672,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="6" t="s">
         <v>13</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="30"/>
       <c r="C68" s="31" t="s">
         <v>120</v>
@@ -2709,7 +2709,7 @@
       <c r="L68" s="28"/>
       <c r="M68" s="28"/>
     </row>
-    <row r="69" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="30" t="s">
         <v>121</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="29" t="s">
         <v>122</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="49" t="s">
         <v>123</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="50" t="s">
         <v>124</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="44" t="s">
         <v>125</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="48" t="s">
         <v>126</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="31" t="s">
         <v>120</v>
       </c>
@@ -2975,8 +2975,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="6" t="s">
         <v>14</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="30"/>
       <c r="C79" s="30" t="s">
         <v>128</v>
@@ -3012,7 +3012,7 @@
       <c r="L79" s="27"/>
       <c r="M79" s="27"/>
     </row>
-    <row r="80" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
       <c r="D80" s="51" t="s">
@@ -3042,7 +3042,7 @@
       <c r="L80" s="30"/>
       <c r="M80" s="30"/>
     </row>
-    <row r="81" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
       <c r="D81" s="51" t="s">
@@ -3072,7 +3072,7 @@
       <c r="L81" s="30"/>
       <c r="M81" s="30"/>
     </row>
-    <row r="82" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="30"/>
       <c r="C82" s="30"/>
       <c r="D82" s="51" t="s">
@@ -3102,7 +3102,7 @@
       <c r="L82" s="30"/>
       <c r="M82" s="30"/>
     </row>
-    <row r="83" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="30"/>
       <c r="C83" s="30"/>
       <c r="D83" s="51" t="s">
@@ -3132,7 +3132,7 @@
       <c r="L83" s="30"/>
       <c r="M83" s="30"/>
     </row>
-    <row r="84" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
       <c r="D84" s="51" t="s">
@@ -3162,7 +3162,7 @@
       <c r="L84" s="30"/>
       <c r="M84" s="30"/>
     </row>
-    <row r="85" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
       <c r="D85" s="51" t="s">
@@ -3192,7 +3192,7 @@
       <c r="L85" s="30"/>
       <c r="M85" s="30"/>
     </row>
-    <row r="86" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
       <c r="D86" s="51" t="s">
@@ -3222,8 +3222,8 @@
       <c r="L86" s="30"/>
       <c r="M86" s="30"/>
     </row>
-    <row r="87" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="6" t="s">
         <v>15</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="26"/>
       <c r="C90" s="52"/>
       <c r="D90" s="26"/>
@@ -3251,7 +3251,7 @@
       <c r="L90" s="27"/>
       <c r="M90" s="27"/>
     </row>
-    <row r="91" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
       <c r="D91" s="26"/>
@@ -3265,7 +3265,7 @@
       <c r="L91" s="25"/>
       <c r="M91" s="27"/>
     </row>
-    <row r="92" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
       <c r="D92" s="26"/>
@@ -3279,7 +3279,7 @@
       <c r="L92" s="25"/>
       <c r="M92" s="27"/>
     </row>
-    <row r="93" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
       <c r="D93" s="26"/>
@@ -3293,7 +3293,7 @@
       <c r="L93" s="25"/>
       <c r="M93" s="27"/>
     </row>
-    <row r="94" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
       <c r="D94" s="26"/>
@@ -3307,7 +3307,7 @@
       <c r="L94" s="25"/>
       <c r="M94" s="27"/>
     </row>
-    <row r="95" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
       <c r="D95" s="26"/>
@@ -3321,7 +3321,7 @@
       <c r="L95" s="25"/>
       <c r="M95" s="27"/>
     </row>
-    <row r="96" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
       <c r="D96" s="26"/>
@@ -3335,7 +3335,7 @@
       <c r="L96" s="25"/>
       <c r="M96" s="27"/>
     </row>
-    <row r="97" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
@@ -3349,8 +3349,8 @@
       <c r="L97" s="27"/>
       <c r="M97" s="27"/>
     </row>
-    <row r="98" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
         <v>74</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
       <c r="D100" s="26"/>
@@ -3378,7 +3378,7 @@
       <c r="L100" s="26"/>
       <c r="M100" s="26"/>
     </row>
-    <row r="101" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
       <c r="D101" s="25"/>
@@ -3392,7 +3392,7 @@
       <c r="L101" s="25"/>
       <c r="M101" s="25"/>
     </row>
-    <row r="102" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
       <c r="D102" s="25"/>
@@ -3406,7 +3406,7 @@
       <c r="L102" s="25"/>
       <c r="M102" s="25"/>
     </row>
-    <row r="103" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
       <c r="D103" s="25"/>
@@ -3420,7 +3420,7 @@
       <c r="L103" s="25"/>
       <c r="M103" s="25"/>
     </row>
-    <row r="104" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
@@ -3434,7 +3434,7 @@
       <c r="L104" s="25"/>
       <c r="M104" s="25"/>
     </row>
-    <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
@@ -3448,7 +3448,7 @@
       <c r="L105" s="25"/>
       <c r="M105" s="25"/>
     </row>
-    <row r="106" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
@@ -3462,7 +3462,7 @@
       <c r="L106" s="25"/>
       <c r="M106" s="25"/>
     </row>
-    <row r="107" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
@@ -3476,8 +3476,8 @@
       <c r="L107" s="25"/>
       <c r="M107" s="25"/>
     </row>
-    <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B110" s="6" t="s">
         <v>50</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="26" t="s">
         <v>94</v>
@@ -3516,7 +3516,7 @@
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="26"/>
       <c r="C112" s="26"/>
@@ -3535,7 +3535,7 @@
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:24" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="26" t="s">
         <v>113</v>
@@ -3554,7 +3554,7 @@
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:24" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="26" t="s">
         <v>114</v>
@@ -3577,7 +3577,7 @@
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:24" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="26" t="s">
         <v>118</v>
@@ -3596,7 +3596,7 @@
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:24" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="26" t="s">
         <v>119</v>
@@ -3615,7 +3615,7 @@
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:24" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="27"/>
       <c r="C117" s="27"/>
@@ -3632,7 +3632,7 @@
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:24" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="27"/>
       <c r="C118" s="27"/>
@@ -3649,7 +3649,7 @@
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="122" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B122" s="9"/>
       <c r="C122" s="10" t="s">
         <v>75</v>
@@ -3684,7 +3684,7 @@
       <c r="W122" s="4"/>
       <c r="X122" s="4"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B123" s="13"/>
       <c r="C123" s="14"/>
       <c r="D123"/>
@@ -3733,7 +3733,7 @@
       <c r="W123" s="4"/>
       <c r="X123" s="4"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B124" s="17"/>
       <c r="C124" s="15" t="s">
         <v>92</v>
@@ -3784,7 +3784,7 @@
       <c r="W124" s="4"/>
       <c r="X124" s="4"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B125" s="13"/>
       <c r="C125" s="18"/>
       <c r="D125" s="15"/>
@@ -3837,7 +3837,7 @@
       <c r="W125" s="4"/>
       <c r="X125" s="4"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B126" s="13"/>
       <c r="C126" s="14"/>
       <c r="D126" s="15"/>
@@ -3876,7 +3876,7 @@
       <c r="U126" s="16"/>
       <c r="V126" s="4"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B127" s="13"/>
       <c r="C127" s="32"/>
       <c r="D127" s="14"/>
@@ -3923,7 +3923,7 @@
       <c r="U127" s="16"/>
       <c r="V127" s="4"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B128" s="21"/>
       <c r="C128" s="15"/>
       <c r="D128" s="15"/>
@@ -3974,7 +3974,7 @@
       <c r="U128" s="16"/>
       <c r="V128" s="4"/>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B129" s="13"/>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
@@ -3997,7 +3997,7 @@
       <c r="U129" s="16"/>
       <c r="V129" s="4"/>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B130" s="13"/>
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
@@ -4023,7 +4023,7 @@
       <c r="T130" s="15"/>
       <c r="U130" s="16"/>
     </row>
-    <row r="131" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="13"/>
       <c r="C131" s="15"/>
@@ -4054,7 +4054,7 @@
       <c r="T131" s="15"/>
       <c r="U131" s="16"/>
     </row>
-    <row r="132" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="13"/>
       <c r="C132" s="14"/>
@@ -4081,7 +4081,7 @@
       <c r="T132" s="14"/>
       <c r="U132" s="20"/>
     </row>
-    <row r="133" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="22"/>
       <c r="C133" s="23"/>
@@ -4108,7 +4108,7 @@
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
     </row>
-    <row r="134" spans="1:41" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:41" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B134" s="9"/>
       <c r="C134" s="10" t="s">
         <v>75</v>
@@ -4138,7 +4138,7 @@
       <c r="T134" s="11"/>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" spans="1:41" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:41" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B135" s="13"/>
       <c r="C135" s="14"/>
       <c r="D135"/>
@@ -4177,7 +4177,7 @@
       <c r="S135" s="16"/>
       <c r="Y135" s="3"/>
     </row>
-    <row r="136" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B136" s="17"/>
       <c r="C136" s="15" t="s">
         <v>76</v>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="Y136" s="3"/>
     </row>
-    <row r="137" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B137" s="17"/>
       <c r="C137" s="14"/>
       <c r="D137" s="15"/>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="Y137" s="3"/>
     </row>
-    <row r="138" spans="1:41" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:41" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B138" s="13"/>
       <c r="C138" s="14"/>
       <c r="D138" s="15"/>
@@ -4329,7 +4329,7 @@
       <c r="AN138" s="11"/>
       <c r="AO138" s="12"/>
     </row>
-    <row r="139" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B139" s="13"/>
       <c r="C139" s="18"/>
       <c r="D139" s="15"/>
@@ -4398,7 +4398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="140" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B140" s="13"/>
       <c r="C140" s="18"/>
       <c r="D140" s="15"/>
@@ -4475,7 +4475,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B141" s="13"/>
       <c r="C141" s="14"/>
       <c r="D141" s="15"/>
@@ -4537,7 +4537,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="142" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B142" s="37"/>
       <c r="C142" s="23"/>
       <c r="D142" s="35"/>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="AO142" s="16"/>
     </row>
-    <row r="143" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="AO143" s="16"/>
     </row>
-    <row r="144" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="AO144" s="16"/>
     </row>
-    <row r="145" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="AO145" s="16"/>
     </row>
-    <row r="146" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="AO146" s="16"/>
     </row>
-    <row r="147" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4775,7 +4775,7 @@
       <c r="AN147" s="15"/>
       <c r="AO147" s="16"/>
     </row>
-    <row r="148" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="AO148" s="16"/>
     </row>
-    <row r="149" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4850,7 +4850,7 @@
       </c>
       <c r="AO149" s="16"/>
     </row>
-    <row r="150" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4878,7 +4878,7 @@
       <c r="AN150" s="15"/>
       <c r="AO150" s="16"/>
     </row>
-    <row r="151" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4910,7 +4910,7 @@
       <c r="AN151" s="14"/>
       <c r="AO151" s="20"/>
     </row>
-    <row r="152" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:41" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4948,7 +4948,7 @@
       <c r="AN152" s="23"/>
       <c r="AO152" s="24"/>
     </row>
-    <row r="153" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4968,7 +4968,7 @@
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
     </row>
-    <row r="154" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
